--- a/汽柴煤油2.0/eta/中国柴油产量_合并数据.xlsx
+++ b/汽柴煤油2.0/eta/中国柴油产量_合并数据.xlsx
@@ -458,7 +458,7 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>1744.7</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="3">
